--- a/Resumen/2020/Entidad/01 Migración reciente 2015 - 2020/01 Indicadores sociodemograficos a nivel estatal 2020.xlsx
+++ b/Resumen/2020/Entidad/01 Migración reciente 2015 - 2020/01 Indicadores sociodemograficos a nivel estatal 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prontuario_migracion_interna\Resumen\2020\Entidad\01 Migración reciente 2015 - 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26516450-11E5-4248-962A-AA68EC83E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B223030A-53AC-4FE2-ACA0-77E4FC51C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEXO" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="112">
   <si>
     <t>CVE_ENT</t>
   </si>
@@ -386,9 +386,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="###\ ###\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="###\ ###\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -502,15 +502,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -522,61 +522,58 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,7 +883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
@@ -905,7 +904,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -935,7 +934,7 @@
       <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -997,28 +996,28 @@
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="6">
         <v>0.482690139630361</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="6">
         <v>0.517309860369639</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="6">
         <v>0.482266762552856</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="6">
         <v>0.51773323744714395</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="6">
         <v>0.491260501427699</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="6">
         <v>0.50873949857230105</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="6">
         <v>0.50530819844185204</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="6">
         <v>0.49469180155814801</v>
       </c>
       <c r="U2" s="2"/>
@@ -1058,28 +1057,28 @@
       <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="6">
         <v>0.50225006322382504</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="6">
         <v>0.49774993677617502</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="6">
         <v>0.50158515447293095</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="6">
         <v>0.49841484552706899</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="6">
         <v>0.51066338356900498</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="6">
         <v>0.48933661643099502</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="6">
         <v>0.52819649552375803</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="6">
         <v>0.47180350447624098</v>
       </c>
       <c r="U3" s="2"/>
@@ -1119,28 +1118,28 @@
       <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="6">
         <v>0.50298894084977896</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="6">
         <v>0.49701105915022098</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="6">
         <v>0.49953231882885901</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="6">
         <v>0.50046768117114104</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="6">
         <v>0.53607208575517695</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="6">
         <v>0.46392791424482299</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="6">
         <v>0.51915561436440305</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="6">
         <v>0.480844385635597</v>
       </c>
       <c r="U4" s="2"/>
@@ -1180,28 +1179,28 @@
       <c r="L5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="6">
         <v>0.49038990160731699</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="6">
         <v>0.50961009839268301</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="6">
         <v>0.48985982964413299</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="6">
         <v>0.51014017035586701</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="6">
         <v>0.50226664789525599</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="6">
         <v>0.49773335210474401</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="6">
         <v>0.50074468919024895</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="6">
         <v>0.499255310809751</v>
       </c>
       <c r="U5" s="2"/>
@@ -1241,28 +1240,28 @@
       <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="6">
         <v>0.49661459580859402</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="6">
         <v>0.50338540419140598</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="6">
         <v>0.49587693702494301</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="6">
         <v>0.50412306297505705</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="6">
         <v>0.52305675609028002</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="6">
         <v>0.47694324390971998</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="6">
         <v>0.51716966379984397</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="6">
         <v>0.48283033620015597</v>
       </c>
       <c r="U6" s="2"/>
@@ -1302,28 +1301,28 @@
       <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="6">
         <v>0.48824384073320498</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="6">
         <v>0.51175615926679496</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="6">
         <v>0.48763423364790098</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="6">
         <v>0.51236576635209896</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="6">
         <v>0.49858038249316999</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="6">
         <v>0.50141961750682995</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="6">
         <v>0.52975970425138597</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="6">
         <v>0.47024029574861398</v>
       </c>
       <c r="U7" s="2"/>
@@ -1363,28 +1362,28 @@
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="6">
         <v>0.48558526749511499</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="6">
         <v>0.51441473250488501</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="6">
         <v>0.48516343387953198</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="6">
         <v>0.51483656612046802</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="6">
         <v>0.52247768460914301</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="6">
         <v>0.47752231539085699</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="6">
         <v>0.50635764202320699</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="6">
         <v>0.49364235797679301</v>
       </c>
       <c r="U8" s="2"/>
@@ -1424,28 +1423,28 @@
       <c r="L9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="6">
         <v>0.49222819739928197</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="6">
         <v>0.50777180260071797</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="6">
         <v>0.49182200139544202</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="6">
         <v>0.50817799860455704</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="6">
         <v>0.504482268202046</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="6">
         <v>0.495517731797954</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="6">
         <v>0.52002699924831597</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="6">
         <v>0.47997300075168398</v>
       </c>
       <c r="U9" s="2"/>
@@ -1485,28 +1484,28 @@
       <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="6">
         <v>0.47569629691639398</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="6">
         <v>0.52430370308360597</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="6">
         <v>0.47542191141627699</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="6">
         <v>0.52457808858372301</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="6">
         <v>0.48240960862931598</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="6">
         <v>0.51759039137068397</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="6">
         <v>0.50896019360024003</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="6">
         <v>0.49103980639976003</v>
       </c>
       <c r="U10" s="2"/>
@@ -1546,28 +1545,28 @@
       <c r="L11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="6">
         <v>0.48915706367683298</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="6">
         <v>0.51084293632316702</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="6">
         <v>0.488746582008041</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="6">
         <v>0.511253417991959</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="6">
         <v>0.50419224777787996</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="6">
         <v>0.49580775222211998</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="6">
         <v>0.49007716781803201</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="6">
         <v>0.50992283218196799</v>
       </c>
       <c r="U11" s="2"/>
@@ -1607,28 +1606,28 @@
       <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="6">
         <v>0.48154873488618</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="6">
         <v>0.51845126511382</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="6">
         <v>0.48099697340686198</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="6">
         <v>0.51900302659313802</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="6">
         <v>0.51030480063384798</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="6">
         <v>0.48969519936615202</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="6">
         <v>0.47074510811939702</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="6">
         <v>0.52925489188060304</v>
       </c>
       <c r="U12" s="2"/>
@@ -1668,28 +1667,28 @@
       <c r="L13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="6">
         <v>0.47730032770082098</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="6">
         <v>0.52269967229917902</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="6">
         <v>0.47657051827046698</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="6">
         <v>0.52342948172953296</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="6">
         <v>0.51412768442224099</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="6">
         <v>0.48587231557775901</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="6">
         <v>0.493540161722198</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="6">
         <v>0.50645983827780205</v>
       </c>
       <c r="U13" s="2"/>
@@ -1729,28 +1728,28 @@
       <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="6">
         <v>0.477337752953442</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="6">
         <v>0.52266224704655795</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="6">
         <v>0.47694767353531797</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="6">
         <v>0.52305232646468203</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="6">
         <v>0.48399592774956901</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="6">
         <v>0.51600407225043099</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="6">
         <v>0.50180675209067005</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="6">
         <v>0.49819324790933001</v>
       </c>
       <c r="U14" s="2"/>
@@ -1790,28 +1789,28 @@
       <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="6">
         <v>0.48653594256983101</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="6">
         <v>0.51346405743016899</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="6">
         <v>0.48594190478475902</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="6">
         <v>0.51405809521524104</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="6">
         <v>0.50855626529699405</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="6">
         <v>0.49144373470300601</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="6">
         <v>0.49651392588409998</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="6">
         <v>0.50348607411589996</v>
       </c>
       <c r="U15" s="2"/>
@@ -1851,28 +1850,28 @@
       <c r="L16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="6">
         <v>0.48278952231354999</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="6">
         <v>0.51721047768645001</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="6">
         <v>0.48244553296329801</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="6">
         <v>0.51755446703670205</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="6">
         <v>0.49435497647259802</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="6">
         <v>0.50564502352740204</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="6">
         <v>0.49009542574786003</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="6">
         <v>0.50990457425213997</v>
       </c>
       <c r="U16" s="2"/>
@@ -1912,28 +1911,28 @@
       <c r="L17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="6">
         <v>0.48120103679613502</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="6">
         <v>0.51879896320386498</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="6">
         <v>0.48073202596827802</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="6">
         <v>0.51926797403172198</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="6">
         <v>0.50186443005482395</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="6">
         <v>0.49813556994517599</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="6">
         <v>0.47356337593804598</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="6">
         <v>0.52643662406195402</v>
       </c>
       <c r="U17" s="2"/>
@@ -1973,28 +1972,28 @@
       <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="6">
         <v>0.480529362376589</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="6">
         <v>0.51947063762341095</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="6">
         <v>0.48052788992784501</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="6">
         <v>0.51947211007215499</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="6">
         <v>0.48055734143259399</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="6">
         <v>0.51944265856740601</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="6">
         <v>0.50463087448836297</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="6">
         <v>0.49536912551163698</v>
       </c>
       <c r="U18" s="2"/>
@@ -2034,28 +2033,28 @@
       <c r="L19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="6">
         <v>0.49239415410678</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="6">
         <v>0.50760584589322</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="6">
         <v>0.49248518917463302</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="6">
         <v>0.50751481082536698</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="6">
         <v>0.49028526869842098</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="6">
         <v>0.50971473130157896</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="6">
         <v>0.50927233136321204</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="6">
         <v>0.49072766863678802</v>
       </c>
       <c r="U19" s="2"/>
@@ -2095,28 +2094,28 @@
       <c r="L20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="6">
         <v>0.49935641591720897</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="6">
         <v>0.50064358408279097</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="6">
         <v>0.49826812474297599</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="6">
         <v>0.50173187525702401</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="6">
         <v>0.51947226900688503</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="6">
         <v>0.48052773099311502</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="6">
         <v>0.52222389471873398</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="6">
         <v>0.47777610528126602</v>
       </c>
       <c r="U20" s="2"/>
@@ -2156,28 +2155,28 @@
       <c r="L21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="6">
         <v>0.47389813262080699</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="6">
         <v>0.52610186737919296</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="6">
         <v>0.47320219401199398</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="6">
         <v>0.52679780598800596</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="6">
         <v>0.50041400706432304</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="6">
         <v>0.49958599293567701</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="6">
         <v>0.50634752710923003</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="6">
         <v>0.49365247289077002</v>
       </c>
       <c r="U21" s="2"/>
@@ -2217,28 +2216,28 @@
       <c r="L22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="6">
         <v>0.47769530867589099</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="6">
         <v>0.52230469132410895</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="6">
         <v>0.47725629532413599</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="6">
         <v>0.52274370467586395</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="6">
         <v>0.49206277290412498</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22" s="6">
         <v>0.50793722709587497</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S22" s="6">
         <v>0.49410207401634199</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="6">
         <v>0.50589792598365801</v>
       </c>
       <c r="U22" s="2"/>
@@ -2278,28 +2277,28 @@
       <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="6">
         <v>0.48648722436057001</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="6">
         <v>0.51351277563942999</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="6">
         <v>0.48637512576123298</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="6">
         <v>0.51362487423876702</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="6">
         <v>0.48763648291913297</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="6">
         <v>0.51236351708086703</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="6">
         <v>0.50130650004057498</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="6">
         <v>0.49869349995942502</v>
       </c>
       <c r="U23" s="2"/>
@@ -2339,28 +2338,28 @@
       <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="6">
         <v>0.50131157962907402</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="6">
         <v>0.49868842037092598</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="6">
         <v>0.50154298024422295</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="6">
         <v>0.498457019755777</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="6">
         <v>0.499505667819237</v>
       </c>
-      <c r="R24" s="16">
+      <c r="R24" s="6">
         <v>0.500494332180763</v>
       </c>
-      <c r="S24" s="16">
+      <c r="S24" s="6">
         <v>0.530307792741604</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="6">
         <v>0.469692207258396</v>
       </c>
       <c r="U24" s="2"/>
@@ -2400,28 +2399,28 @@
       <c r="L25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="6">
         <v>0.48333063838989099</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="6">
         <v>0.51666936161010901</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="6">
         <v>0.482552867228004</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="6">
         <v>0.51744713277199605</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="6">
         <v>0.51581139620126604</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25" s="6">
         <v>0.48418860379873402</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="6">
         <v>0.49987509367973998</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="6">
         <v>0.50012490632025997</v>
       </c>
       <c r="U25" s="2"/>
@@ -2461,28 +2460,28 @@
       <c r="L26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="6">
         <v>0.48880077341929201</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="6">
         <v>0.51119922658070804</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="6">
         <v>0.48789909181580798</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="6">
         <v>0.51210090818419196</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="6">
         <v>0.51727497386179999</v>
       </c>
-      <c r="R26" s="16">
+      <c r="R26" s="6">
         <v>0.48272502613820001</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="6">
         <v>0.50813557141938404</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="6">
         <v>0.49186442858061602</v>
       </c>
       <c r="U26" s="2"/>
@@ -2522,28 +2521,28 @@
       <c r="L27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="6">
         <v>0.49440392246477499</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="6">
         <v>0.50559607753522495</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="6">
         <v>0.493243232928324</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="6">
         <v>0.50675676707167605</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="6">
         <v>0.540003598524605</v>
       </c>
-      <c r="R27" s="16">
+      <c r="R27" s="6">
         <v>0.459996401475395</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S27" s="6">
         <v>0.49520707877596198</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="6">
         <v>0.50479292122403796</v>
       </c>
       <c r="U27" s="2"/>
@@ -2583,28 +2582,28 @@
       <c r="L28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="6">
         <v>0.48332571699645899</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="6">
         <v>0.51667428300354101</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="6">
         <v>0.48285900184427599</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="6">
         <v>0.51714099815572401</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="6">
         <v>0.50428913838778899</v>
       </c>
-      <c r="R28" s="16">
+      <c r="R28" s="6">
         <v>0.49571086161221101</v>
       </c>
-      <c r="S28" s="16">
+      <c r="S28" s="6">
         <v>0.506531987649812</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="6">
         <v>0.493468012350188</v>
       </c>
       <c r="U28" s="2"/>
@@ -2644,28 +2643,28 @@
       <c r="L29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="6">
         <v>0.49098170226979398</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="6">
         <v>0.50901829773020602</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="6">
         <v>0.49033804798340602</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="6">
         <v>0.50966195201659403</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="6">
         <v>0.50952887327199603</v>
       </c>
-      <c r="R29" s="16">
+      <c r="R29" s="6">
         <v>0.49047112672800403</v>
       </c>
-      <c r="S29" s="16">
+      <c r="S29" s="6">
         <v>0.51126317230053397</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="6">
         <v>0.48873682769946603</v>
       </c>
       <c r="U29" s="2"/>
@@ -2705,28 +2704,28 @@
       <c r="L30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="6">
         <v>0.481343555558501</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="6">
         <v>0.51865644444149905</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="6">
         <v>0.48117934952587499</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="6">
         <v>0.51882065047412496</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="6">
         <v>0.485739258441439</v>
       </c>
-      <c r="R30" s="16">
+      <c r="R30" s="6">
         <v>0.51426074155856105</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="6">
         <v>0.48537270485064399</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="6">
         <v>0.51462729514935601</v>
       </c>
       <c r="U30" s="2"/>
@@ -2766,28 +2765,28 @@
       <c r="L31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="6">
         <v>0.47698285066448198</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="6">
         <v>0.52301714933551802</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="6">
         <v>0.47627952849532301</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="6">
         <v>0.52372047150467704</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="6">
         <v>0.50703686030550998</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R31" s="6">
         <v>0.49296313969449002</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="6">
         <v>0.50017167381974204</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="6">
         <v>0.49982832618025802</v>
       </c>
       <c r="U31" s="2"/>
@@ -2827,28 +2826,28 @@
       <c r="L32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="6">
         <v>0.49169242604049901</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="6">
         <v>0.50830757395950099</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="6">
         <v>0.49175463118526902</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="6">
         <v>0.50824536881473104</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="6">
         <v>0.49065054864545299</v>
       </c>
-      <c r="R32" s="16">
+      <c r="R32" s="6">
         <v>0.50934945135454701</v>
       </c>
-      <c r="S32" s="16">
+      <c r="S32" s="6">
         <v>0.50542974781266103</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="6">
         <v>0.49457025218733902</v>
       </c>
       <c r="U32" s="2"/>
@@ -2888,28 +2887,28 @@
       <c r="L33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="6">
         <v>0.48175688384055199</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="6">
         <v>0.51824311615944796</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="6">
         <v>0.48118735668563101</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="6">
         <v>0.51881264331436905</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="6">
         <v>0.50636574074074103</v>
       </c>
-      <c r="R33" s="16">
+      <c r="R33" s="6">
         <v>0.49363425925925902</v>
       </c>
-      <c r="S33" s="16">
+      <c r="S33" s="6">
         <v>0.48080388080388098</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="6">
         <v>0.51919611919611897</v>
       </c>
       <c r="U33" s="2"/>
@@ -2949,28 +2948,28 @@
       <c r="L34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="11">
         <v>0.48476049578814201</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="11">
         <v>0.51523950421185805</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="11">
         <v>0.48416121322890898</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="11">
         <v>0.51583878677109096</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="11">
         <v>0.501616210008487</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R34" s="11">
         <v>0.498383789991513</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="11">
         <v>0.501616210008487</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T34" s="11">
         <v>0.498383789991513</v>
       </c>
       <c r="U34" s="3"/>
@@ -3016,28 +3015,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
       <c r="U1" s="22" t="s">
         <v>55</v>
       </c>
@@ -3061,28 +3060,28 @@
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
       <c r="AN1" s="3"/>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="21" t="s">
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
       <c r="BG1" s="22" t="s">
         <v>55</v>
       </c>
@@ -3106,230 +3105,230 @@
       <c r="BW1" s="23"/>
       <c r="BX1" s="23"/>
     </row>
-    <row r="2" spans="1:76" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:76" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="AX2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="24" t="s">
+      <c r="AY2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="BC2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BE2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BG2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BH2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BI2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BM2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BN2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BO2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BP2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="BR2" s="24" t="s">
+      <c r="BR2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BS2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BT2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BW2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BX2" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10800,42 +10799,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:132" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
       <c r="AI1" s="22" t="s">
         <v>55</v>
       </c>
@@ -10873,42 +10872,42 @@
       <c r="BM1" s="23"/>
       <c r="BN1" s="23"/>
       <c r="BP1" s="3"/>
-      <c r="BQ1" s="11" t="s">
+      <c r="BQ1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="21" t="s">
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21"/>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
-      <c r="CM1" s="21"/>
-      <c r="CN1" s="21"/>
-      <c r="CO1" s="21"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="21"/>
-      <c r="CR1" s="21"/>
-      <c r="CS1" s="21"/>
-      <c r="CT1" s="21"/>
-      <c r="CU1" s="21"/>
-      <c r="CV1" s="21"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24"/>
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24"/>
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24"/>
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
       <c r="CW1" s="22" t="s">
         <v>55</v>
       </c>
@@ -10946,398 +10945,398 @@
       <c r="EA1" s="23"/>
       <c r="EB1" s="23"/>
     </row>
-    <row r="2" spans="1:132" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:132" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="AX2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="24" t="s">
+      <c r="AY2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="BC2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BE2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BG2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BH2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BI2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BM2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BN2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="24" t="s">
+      <c r="BR2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BS2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BT2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BW2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BX2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BY2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="BZ2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CA2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CB2" s="24" t="s">
+      <c r="CB2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="CC2" s="24" t="s">
+      <c r="CC2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="CD2" s="24" t="s">
+      <c r="CD2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="CE2" s="24" t="s">
+      <c r="CE2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="CF2" s="24" t="s">
+      <c r="CF2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="CG2" s="24" t="s">
+      <c r="CG2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="CH2" s="24" t="s">
+      <c r="CH2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="CI2" s="24" t="s">
+      <c r="CI2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="CJ2" s="24" t="s">
+      <c r="CJ2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="CK2" s="24" t="s">
+      <c r="CK2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="CL2" s="24" t="s">
+      <c r="CL2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="CM2" s="24" t="s">
+      <c r="CM2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="CN2" s="24" t="s">
+      <c r="CN2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="CO2" s="24" t="s">
+      <c r="CO2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="CP2" s="24" t="s">
+      <c r="CP2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="CQ2" s="24" t="s">
+      <c r="CQ2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CR2" s="24" t="s">
+      <c r="CR2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="CS2" s="24" t="s">
+      <c r="CS2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="CT2" s="24" t="s">
+      <c r="CT2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="CU2" s="24" t="s">
+      <c r="CU2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="CV2" s="24" t="s">
+      <c r="CV2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="CW2" s="24" t="s">
+      <c r="CW2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="CX2" s="24" t="s">
+      <c r="CX2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="CY2" s="24" t="s">
+      <c r="CY2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="CZ2" s="24" t="s">
+      <c r="CZ2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="DA2" s="24" t="s">
+      <c r="DA2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="DB2" s="24" t="s">
+      <c r="DB2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="DC2" s="24" t="s">
+      <c r="DC2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="DD2" s="24" t="s">
+      <c r="DD2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="DE2" s="24" t="s">
+      <c r="DE2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="DF2" s="24" t="s">
+      <c r="DF2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="DG2" s="24" t="s">
+      <c r="DG2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="DH2" s="24" t="s">
+      <c r="DH2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="DI2" s="24" t="s">
+      <c r="DI2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="DJ2" s="24" t="s">
+      <c r="DJ2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="DK2" s="24" t="s">
+      <c r="DK2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="DL2" s="24" t="s">
+      <c r="DL2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="DM2" s="24" t="s">
+      <c r="DM2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="DN2" s="24" t="s">
+      <c r="DN2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="DO2" s="24" t="s">
+      <c r="DO2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="DP2" s="24" t="s">
+      <c r="DP2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="DQ2" s="24" t="s">
+      <c r="DQ2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="DR2" s="24" t="s">
+      <c r="DR2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="DS2" s="24" t="s">
+      <c r="DS2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="DT2" s="24" t="s">
+      <c r="DT2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="DU2" s="24" t="s">
+      <c r="DU2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="DV2" s="24" t="s">
+      <c r="DV2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="DW2" s="24" t="s">
+      <c r="DW2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="DX2" s="24" t="s">
+      <c r="DX2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="DY2" s="24" t="s">
+      <c r="DY2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="DZ2" s="24" t="s">
+      <c r="DZ2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="EA2" s="24" t="s">
+      <c r="EA2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="EB2" s="24" t="s">
+      <c r="EB2" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -24467,7 +24466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="T2" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T35"/>
     </sheetView>
   </sheetViews>
@@ -24486,57 +24485,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="15" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="13" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="U1" s="11" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="U1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="12" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="15" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="13" t="s">
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -24590,7 +24589,7 @@
       <c r="R2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="9" t="s">
@@ -24700,52 +24699,52 @@
       <c r="T3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="12">
         <v>0.204598765695887</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="12">
         <v>0.29010808513481701</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="12">
         <v>0.395710004576389</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="12">
         <v>0.10958314459290699</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="12">
         <v>0.20601506456825899</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="12">
         <v>0.28649423459828099</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="12">
         <v>0.39546611613643901</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="12">
         <v>0.11202458469702101</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="12">
         <v>0.175928829616915</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="12">
         <v>0.363262746133659</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="12">
         <v>0.40064700348259502</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="12">
         <v>6.0161420766831203E-2</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="12">
         <v>0.17034674847616399</v>
       </c>
-      <c r="AH3" s="18">
+      <c r="AH3" s="12">
         <v>0.36450974851653001</v>
       </c>
-      <c r="AI3" s="18">
+      <c r="AI3" s="12">
         <v>0.413999111936382</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AJ3" s="12">
         <v>5.1144391070924E-2</v>
       </c>
     </row>
@@ -24807,52 +24806,52 @@
       <c r="T4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="12">
         <v>0.181350308159237</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="12">
         <v>0.28276279155288597</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="12">
         <v>0.430852521507115</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="12">
         <v>0.10503437878076299</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="12">
         <v>0.181941757973234</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="12">
         <v>0.27185359593789699</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="12">
         <v>0.43611287098525497</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="12">
         <v>0.110091775103614</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="12">
         <v>0.17386648914412201</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="12">
         <v>0.42080061598184099</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="12">
         <v>0.36429150057347298</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="12">
         <v>4.1041394300563798E-2</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AG4" s="12">
         <v>0.20119585059519299</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="12">
         <v>0.29829585824688698</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AI4" s="12">
         <v>0.43770973842134597</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AJ4" s="12">
         <v>6.2798552736574004E-2</v>
       </c>
     </row>
@@ -24914,52 +24913,52 @@
       <c r="T5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="12">
         <v>0.18736728674352601</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="12">
         <v>0.27106453818895199</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="12">
         <v>0.44023707060310702</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="12">
         <v>0.101331104464415</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="12">
         <v>0.19012574748878899</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="12">
         <v>0.25701712491283402</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="12">
         <v>0.44450005416861899</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="12">
         <v>0.108357073429759</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="12">
         <v>0.16096620615123999</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="12">
         <v>0.40551158103805801</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="12">
         <v>0.39943628238455497</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="12">
         <v>3.4085930426147201E-2</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AG5" s="12">
         <v>0.17875496199649199</v>
       </c>
-      <c r="AH5" s="18">
+      <c r="AH5" s="12">
         <v>0.35566359971689698</v>
       </c>
-      <c r="AI5" s="18">
+      <c r="AI5" s="12">
         <v>0.42293134750900102</v>
       </c>
-      <c r="AJ5" s="18">
+      <c r="AJ5" s="12">
         <v>4.26500907776102E-2</v>
       </c>
     </row>
@@ -25021,52 +25020,52 @@
       <c r="T6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="12">
         <v>0.19351443168872401</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="12">
         <v>0.26470145958970798</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="12">
         <v>0.42319319684190598</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="12">
         <v>0.118590911879662</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="12">
         <v>0.19417376901674699</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="12">
         <v>0.26225579519092801</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AA6" s="12">
         <v>0.422076893883224</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="12">
         <v>0.121493541909102</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="12">
         <v>0.17874137688300701</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="12">
         <v>0.31949880332253999</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="12">
         <v>0.44820498380965801</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AF6" s="12">
         <v>5.3554835984795199E-2</v>
       </c>
-      <c r="AG6" s="18">
+      <c r="AG6" s="12">
         <v>0.16982832954456401</v>
       </c>
-      <c r="AH6" s="18">
+      <c r="AH6" s="12">
         <v>0.377655404875754</v>
       </c>
-      <c r="AI6" s="18">
+      <c r="AI6" s="12">
         <v>0.39633142588382803</v>
       </c>
-      <c r="AJ6" s="18">
+      <c r="AJ6" s="12">
         <v>5.6184839695853299E-2</v>
       </c>
     </row>
@@ -25128,52 +25127,52 @@
       <c r="T7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="12">
         <v>0.190107124037321</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="12">
         <v>0.27133639455686498</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="12">
         <v>0.411872057012588</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="12">
         <v>0.126684424393227</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="12">
         <v>0.19040422491303999</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="12">
         <v>0.26849711955850702</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="12">
         <v>0.41246162519103702</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="12">
         <v>0.128637030337416</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="12">
         <v>0.179457228516918</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="12">
         <v>0.37311321366922301</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="12">
         <v>0.39073836130254802</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="12">
         <v>5.6691196511311E-2</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AG7" s="12">
         <v>0.18412822517591901</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="12">
         <v>0.31155590304925701</v>
       </c>
-      <c r="AI7" s="18">
+      <c r="AI7" s="12">
         <v>0.43904612978889801</v>
       </c>
-      <c r="AJ7" s="18">
+      <c r="AJ7" s="12">
         <v>6.5269741985926499E-2</v>
       </c>
     </row>
@@ -25235,52 +25234,52 @@
       <c r="T8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="12">
         <v>0.178857410512372</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="12">
         <v>0.26502151044494698</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="12">
         <v>0.42390791978185199</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="12">
         <v>0.13221315926082799</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="12">
         <v>0.17739219446541901</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="12">
         <v>0.25904606042607198</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="12">
         <v>0.42675795133941402</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="12">
         <v>0.13680379376909399</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="12">
         <v>0.20370171961215</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="12">
         <v>0.36634167247013399</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="12">
         <v>0.37558257888252</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8" s="12">
         <v>5.4374029035195802E-2</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AG8" s="12">
         <v>0.19509326163669999</v>
       </c>
-      <c r="AH8" s="18">
+      <c r="AH8" s="12">
         <v>0.34968912787766798</v>
       </c>
-      <c r="AI8" s="18">
+      <c r="AI8" s="12">
         <v>0.39936145185683097</v>
       </c>
-      <c r="AJ8" s="18">
+      <c r="AJ8" s="12">
         <v>5.5856158628801902E-2</v>
       </c>
     </row>
@@ -25342,52 +25341,52 @@
       <c r="T9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="12">
         <v>0.24420709593798501</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="12">
         <v>0.28739482504783498</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="12">
         <v>0.36604022752078402</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="12">
         <v>0.102357851493396</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="12">
         <v>0.244897104976285</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="12">
         <v>0.28697698096657998</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="12">
         <v>0.36525728240517502</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB9" s="12">
         <v>0.10286863165196</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC9" s="12">
         <v>0.18386078802632799</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="12">
         <v>0.32393832837435799</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="12">
         <v>0.43451447119285902</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AF9" s="12">
         <v>5.7686412406455702E-2</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AG9" s="12">
         <v>0.16156839770682499</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH9" s="12">
         <v>0.48926643511737899</v>
       </c>
-      <c r="AI9" s="18">
+      <c r="AI9" s="12">
         <v>0.32256888192779698</v>
       </c>
-      <c r="AJ9" s="18">
+      <c r="AJ9" s="12">
         <v>2.65962852479989E-2</v>
       </c>
     </row>
@@ -25449,52 +25448,52 @@
       <c r="T10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="12">
         <v>0.196085704587599</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="12">
         <v>0.27094547830021598</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="12">
         <v>0.41141493350714198</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="12">
         <v>0.121553883605042</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="12">
         <v>0.196337054716066</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="12">
         <v>0.267292628669348</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="12">
         <v>0.41244206693379198</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB10" s="12">
         <v>0.12392824968079399</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="12">
         <v>0.18850300500068801</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="12">
         <v>0.38114419415515899</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="12">
         <v>0.38042849933477102</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10" s="12">
         <v>4.9924301509381999E-2</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="12">
         <v>0.17182873885897501</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH10" s="12">
         <v>0.342000705662172</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AI10" s="12">
         <v>0.41928605396781599</v>
       </c>
-      <c r="AJ10" s="18">
+      <c r="AJ10" s="12">
         <v>6.6884501511037503E-2</v>
       </c>
     </row>
@@ -25556,52 +25555,52 @@
       <c r="T11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="12">
         <v>0.13631200566695301</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="12">
         <v>0.24176565857489499</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="12">
         <v>0.44640515719676199</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="12">
         <v>0.17551717856138899</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="12">
         <v>0.13726712465761001</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="Z11" s="12">
         <v>0.23454280567692801</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AA11" s="12">
         <v>0.44787356887901397</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AB11" s="12">
         <v>0.18031650078644801</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC11" s="12">
         <v>0.11294338194419801</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="12">
         <v>0.41848513879525501</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="12">
         <v>0.41047794769896701</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF11" s="12">
         <v>5.8093531561579703E-2</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AG11" s="12">
         <v>0.15864267860770301</v>
       </c>
-      <c r="AH11" s="18">
+      <c r="AH11" s="12">
         <v>0.247497416602634</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11" s="12">
         <v>0.48863570122678301</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AJ11" s="12">
         <v>0.10522420356287999</v>
       </c>
     </row>
@@ -25663,52 +25662,52 @@
       <c r="T12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="12">
         <v>0.21343050779766001</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="12">
         <v>0.27844977059975301</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="12">
         <v>0.38652602304717598</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="12">
         <v>0.12159369855541199</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="12">
         <v>0.21357665183139299</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="12">
         <v>0.27730140622381</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="12">
         <v>0.38568771374176603</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="12">
         <v>0.123434228203031</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="12">
         <v>0.20807752222120399</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="12">
         <v>0.32051223311646698</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="12">
         <v>0.41723174195913099</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12" s="12">
         <v>5.4178502703198003E-2</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AG12" s="12">
         <v>0.19195275009228499</v>
       </c>
-      <c r="AH12" s="18">
+      <c r="AH12" s="12">
         <v>0.37316528678654898</v>
       </c>
-      <c r="AI12" s="18">
+      <c r="AI12" s="12">
         <v>0.36873560793826599</v>
       </c>
-      <c r="AJ12" s="18">
+      <c r="AJ12" s="12">
         <v>6.6146355182900005E-2</v>
       </c>
     </row>
@@ -25770,52 +25769,52 @@
       <c r="T13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="12">
         <v>0.20066580870651601</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="12">
         <v>0.28606016036702098</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="12">
         <v>0.395477036806203</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="12">
         <v>0.117796994120259</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="12">
         <v>0.201323759012558</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="12">
         <v>0.28480783587967201</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AA13" s="12">
         <v>0.39485317982769402</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB13" s="12">
         <v>0.11901522528007499</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC13" s="12">
         <v>0.166375516671917</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="12">
         <v>0.35132735759901501</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE13" s="12">
         <v>0.42799049228213898</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13" s="12">
         <v>5.4306633446929597E-2</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG13" s="12">
         <v>0.168664117640759</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH13" s="12">
         <v>0.36331116323404999</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AI13" s="12">
         <v>0.39864408958005298</v>
       </c>
-      <c r="AJ13" s="18">
+      <c r="AJ13" s="12">
         <v>6.9380629545138101E-2</v>
       </c>
     </row>
@@ -25877,52 +25876,52 @@
       <c r="T14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="12">
         <v>0.22145792667532599</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="12">
         <v>0.27028903672600502</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="12">
         <v>0.369627741070649</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="12">
         <v>0.13862529552802</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="12">
         <v>0.22197328948117001</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="12">
         <v>0.26880910969544503</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AA14" s="12">
         <v>0.36930736446978302</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AB14" s="12">
         <v>0.139910236353602</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AC14" s="12">
         <v>0.19545189126062401</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="12">
         <v>0.34496853305651098</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AE14" s="12">
         <v>0.38579445922273398</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AF14" s="12">
         <v>7.3785116460131098E-2</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AG14" s="12">
         <v>0.18195078066360401</v>
       </c>
-      <c r="AH14" s="18">
+      <c r="AH14" s="12">
         <v>0.444113216184996</v>
       </c>
-      <c r="AI14" s="18">
+      <c r="AI14" s="12">
         <v>0.327346382543798</v>
       </c>
-      <c r="AJ14" s="18">
+      <c r="AJ14" s="12">
         <v>4.65896206076028E-2</v>
       </c>
     </row>
@@ -25984,52 +25983,52 @@
       <c r="T15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="12">
         <v>0.195593349591525</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="12">
         <v>0.26174555149927597</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="12">
         <v>0.40581446525502501</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="12">
         <v>0.13684663365417399</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y15" s="12">
         <v>0.19476529034808901</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="12">
         <v>0.25962803423984598</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AA15" s="12">
         <v>0.404794388740569</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AB15" s="12">
         <v>0.14081228667149601</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AC15" s="12">
         <v>0.209727300085159</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="12">
         <v>0.29788896074376198</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AE15" s="12">
         <v>0.42322591385525599</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AF15" s="12">
         <v>6.9157825315823498E-2</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AG15" s="12">
         <v>0.156378695238204</v>
       </c>
-      <c r="AH15" s="18">
+      <c r="AH15" s="12">
         <v>0.46329712181524102</v>
       </c>
-      <c r="AI15" s="18">
+      <c r="AI15" s="12">
         <v>0.33559703119084999</v>
       </c>
-      <c r="AJ15" s="18">
+      <c r="AJ15" s="12">
         <v>4.47271517557042E-2</v>
       </c>
     </row>
@@ -26091,52 +26090,52 @@
       <c r="T16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="12">
         <v>0.19009749916631799</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="12">
         <v>0.27424865020144301</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="12">
         <v>0.40460913070834298</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="12">
         <v>0.13104471992389499</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="12">
         <v>0.19086663420942099</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="Z16" s="12">
         <v>0.27099874631517401</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AA16" s="12">
         <v>0.40505286368756899</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AB16" s="12">
         <v>0.13308175578783599</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="12">
         <v>0.16158651502435001</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="12">
         <v>0.394718987621685</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AE16" s="12">
         <v>0.388160440653945</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AF16" s="12">
         <v>5.5534056700020602E-2</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AG16" s="12">
         <v>0.18473737832496601</v>
       </c>
-      <c r="AH16" s="18">
+      <c r="AH16" s="12">
         <v>0.33094381774215298</v>
       </c>
-      <c r="AI16" s="18">
+      <c r="AI16" s="12">
         <v>0.43021100568328302</v>
       </c>
-      <c r="AJ16" s="18">
+      <c r="AJ16" s="12">
         <v>5.4107798249598001E-2</v>
       </c>
     </row>
@@ -26198,52 +26197,52 @@
       <c r="T17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="12">
         <v>0.18224280530372999</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="12">
         <v>0.27119608947937401</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="12">
         <v>0.42279803330796401</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="12">
         <v>0.123763071908932</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="12">
         <v>0.18249289703836599</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="12">
         <v>0.27003929938120502</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AA17" s="12">
         <v>0.422206651214726</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AB17" s="12">
         <v>0.12526115236570301</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AC17" s="12">
         <v>0.17383433425549799</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="12">
         <v>0.31008916230912398</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AE17" s="12">
         <v>0.44268121424023499</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AF17" s="12">
         <v>7.3395289195143196E-2</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AG17" s="12">
         <v>0.17984555969726501</v>
       </c>
-      <c r="AH17" s="18">
+      <c r="AH17" s="12">
         <v>0.32081602553392502</v>
       </c>
-      <c r="AI17" s="18">
+      <c r="AI17" s="12">
         <v>0.43105974623549398</v>
       </c>
-      <c r="AJ17" s="18">
+      <c r="AJ17" s="12">
         <v>6.8278668533316406E-2</v>
       </c>
     </row>
@@ -26305,52 +26304,52 @@
       <c r="T18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="12">
         <v>0.19955160630255001</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="12">
         <v>0.271198711131867</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="12">
         <v>0.38649539274655298</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="12">
         <v>0.14275428981902999</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="12">
         <v>0.199526659395447</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="12">
         <v>0.26982356541856301</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="12">
         <v>0.38634562687419899</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AB18" s="12">
         <v>0.144304148311791</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="12">
         <v>0.200650701934148</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="12">
         <v>0.33178404301393299</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AE18" s="12">
         <v>0.39309368628983699</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AF18" s="12">
         <v>7.4471568762081802E-2</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AG18" s="12">
         <v>0.198780111708872</v>
       </c>
-      <c r="AH18" s="18">
+      <c r="AH18" s="12">
         <v>0.38206318747215801</v>
       </c>
-      <c r="AI18" s="18">
+      <c r="AI18" s="12">
         <v>0.36855360997841202</v>
       </c>
-      <c r="AJ18" s="18">
+      <c r="AJ18" s="12">
         <v>5.0603090840557897E-2</v>
       </c>
     </row>
@@ -26412,52 +26411,52 @@
       <c r="T19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="12">
         <v>0.17923560560507901</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="12">
         <v>0.26535120411652402</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="12">
         <v>0.40860546376012402</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="12">
         <v>0.14680772651827301</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="12">
         <v>0.179676949471509</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="12">
         <v>0.26354944899169902</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AA19" s="12">
         <v>0.40847591996597898</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="12">
         <v>0.14829768157081299</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="12">
         <v>0.17084931385372601</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="12">
         <v>0.29958764715010999</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE19" s="12">
         <v>0.41106701842286097</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="12">
         <v>0.118496020573303</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="12">
         <v>0.16494876161453201</v>
       </c>
-      <c r="AH19" s="18">
+      <c r="AH19" s="12">
         <v>0.38959098921454399</v>
       </c>
-      <c r="AI19" s="18">
+      <c r="AI19" s="12">
         <v>0.37312897732365302</v>
       </c>
-      <c r="AJ19" s="18">
+      <c r="AJ19" s="12">
         <v>7.2331271847270798E-2</v>
       </c>
     </row>
@@ -26519,52 +26518,52 @@
       <c r="T20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="12">
         <v>0.204995271835827</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="12">
         <v>0.26135678144229202</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="12">
         <v>0.39460406666935599</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="12">
         <v>0.13904388005252499</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="12">
         <v>0.205223434017025</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="12">
         <v>0.25749424023458001</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20" s="12">
         <v>0.39472065137710799</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AB20" s="12">
         <v>0.142561674371288</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="12">
         <v>0.199709749388091</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="12">
         <v>0.35083501202157402</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AE20" s="12">
         <v>0.39190330755734598</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20" s="12">
         <v>5.7551931032988897E-2</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AG20" s="12">
         <v>0.19602306716757201</v>
       </c>
-      <c r="AH20" s="18">
+      <c r="AH20" s="12">
         <v>0.36802182288052498</v>
       </c>
-      <c r="AI20" s="18">
+      <c r="AI20" s="12">
         <v>0.38898327391065102</v>
       </c>
-      <c r="AJ20" s="18">
+      <c r="AJ20" s="12">
         <v>4.69718360412529E-2</v>
       </c>
     </row>
@@ -26626,52 +26625,52 @@
       <c r="T21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="12">
         <v>0.17448123710699201</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="12">
         <v>0.27369138219112799</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="12">
         <v>0.42468303246962302</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="12">
         <v>0.12714434823225701</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21" s="12">
         <v>0.175463322091231</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="12">
         <v>0.26340729621641101</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21" s="12">
         <v>0.42895155105445198</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AB21" s="12">
         <v>0.132177830637906</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="12">
         <v>0.15632848742723801</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="12">
         <v>0.46378128416511499</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AE21" s="12">
         <v>0.345784209437698</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21" s="12">
         <v>3.4106018969949498E-2</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AG21" s="12">
         <v>0.172522793738173</v>
       </c>
-      <c r="AH21" s="18">
+      <c r="AH21" s="12">
         <v>0.30814553586788201</v>
       </c>
-      <c r="AI21" s="18">
+      <c r="AI21" s="12">
         <v>0.45845518665061102</v>
       </c>
-      <c r="AJ21" s="18">
+      <c r="AJ21" s="12">
         <v>6.0876483743333903E-2</v>
       </c>
     </row>
@@ -26733,52 +26732,52 @@
       <c r="T22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="12">
         <v>0.20837050364340501</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="12">
         <v>0.25885171619610498</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="12">
         <v>0.38443768468997802</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="12">
         <v>0.148340095470512</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="Y22" s="12">
         <v>0.208940332039766</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="Z22" s="12">
         <v>0.25657253160583798</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AA22" s="12">
         <v>0.38411495262803602</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AB22" s="12">
         <v>0.15037218372635999</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="12">
         <v>0.18665953945644501</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="12">
         <v>0.345690658114014</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AE22" s="12">
         <v>0.39673406072802397</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AF22" s="12">
         <v>7.0915741701516599E-2</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AG22" s="12">
         <v>0.14940198066355201</v>
       </c>
-      <c r="AH22" s="18">
+      <c r="AH22" s="12">
         <v>0.49166152399424001</v>
       </c>
-      <c r="AI22" s="18">
+      <c r="AI22" s="12">
         <v>0.30374827353139999</v>
       </c>
-      <c r="AJ22" s="18">
+      <c r="AJ22" s="12">
         <v>5.5188221810808402E-2</v>
       </c>
     </row>
@@ -26840,52 +26839,52 @@
       <c r="T23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="12">
         <v>0.20308243497687001</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="12">
         <v>0.283035054751062</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="12">
         <v>0.38978715672803099</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="12">
         <v>0.124095353544038</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Y23" s="12">
         <v>0.204076243360478</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="Z23" s="12">
         <v>0.28018220159919599</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AA23" s="12">
         <v>0.389874354823805</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AB23" s="12">
         <v>0.12586720021652101</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AC23" s="12">
         <v>0.17055835263602001</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="12">
         <v>0.37639956278706299</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AE23" s="12">
         <v>0.38693344962140303</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="12">
         <v>6.6108634955514195E-2</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="12">
         <v>0.15488009303073599</v>
       </c>
-      <c r="AH23" s="18">
+      <c r="AH23" s="12">
         <v>0.44128981177358401</v>
       </c>
-      <c r="AI23" s="18">
+      <c r="AI23" s="12">
         <v>0.35865080690555301</v>
       </c>
-      <c r="AJ23" s="18">
+      <c r="AJ23" s="12">
         <v>4.5179288290127198E-2</v>
       </c>
     </row>
@@ -26947,52 +26946,52 @@
       <c r="T24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="12">
         <v>0.184517733377879</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="12">
         <v>0.28062539505966</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="12">
         <v>0.41917322284465203</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="12">
         <v>0.11568364871780901</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="Y24" s="12">
         <v>0.188093096578025</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24" s="12">
         <v>0.27245787093913698</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AA24" s="12">
         <v>0.42081321111279801</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AB24" s="12">
         <v>0.118635821370039</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AC24" s="12">
         <v>0.14786235336384501</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="12">
         <v>0.364360580452678</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AE24" s="12">
         <v>0.40235971612594201</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AF24" s="12">
         <v>8.5417350057534994E-2</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AG24" s="12">
         <v>0.157851172604074</v>
       </c>
-      <c r="AH24" s="18">
+      <c r="AH24" s="12">
         <v>0.336444047715654</v>
       </c>
-      <c r="AI24" s="18">
+      <c r="AI24" s="12">
         <v>0.44852714436419699</v>
       </c>
-      <c r="AJ24" s="18">
+      <c r="AJ24" s="12">
         <v>5.7177635316075601E-2</v>
       </c>
     </row>
@@ -27054,52 +27053,52 @@
       <c r="T25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="12">
         <v>0.18935169643838501</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="12">
         <v>0.29086766265518399</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="12">
         <v>0.43936461913688302</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="12">
         <v>8.0416021769548193E-2</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y25" s="12">
         <v>0.192730431565274</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="12">
         <v>0.27730009290054802</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AA25" s="12">
         <v>0.44539177086140103</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AB25" s="12">
         <v>8.4577704672776893E-2</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="12">
         <v>0.16298315085762699</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="12">
         <v>0.39675257758922799</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AE25" s="12">
         <v>0.39232712759001298</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25" s="12">
         <v>4.7937143963131701E-2</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AG25" s="12">
         <v>0.160763074542421</v>
       </c>
-      <c r="AH25" s="18">
+      <c r="AH25" s="12">
         <v>0.31633985347808202</v>
       </c>
-      <c r="AI25" s="18">
+      <c r="AI25" s="12">
         <v>0.46937788631253202</v>
       </c>
-      <c r="AJ25" s="18">
+      <c r="AJ25" s="12">
         <v>5.3519185666964897E-2</v>
       </c>
     </row>
@@ -27161,52 +27160,52 @@
       <c r="T26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="12">
         <v>0.19185010140130601</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="12">
         <v>0.27281763155382599</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="12">
         <v>0.39282261882265401</v>
       </c>
-      <c r="X26" s="18">
+      <c r="X26" s="12">
         <v>0.14250964822221401</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="Y26" s="12">
         <v>0.192191947784075</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="Z26" s="12">
         <v>0.27097663488947799</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="12">
         <v>0.39232280676556902</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="12">
         <v>0.14450861056087799</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="12">
         <v>0.17757414195268201</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="12">
         <v>0.349700099966678</v>
       </c>
-      <c r="AE26" s="18">
+      <c r="AE26" s="12">
         <v>0.41369543485504801</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AF26" s="12">
         <v>5.9030323225591499E-2</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AG26" s="12">
         <v>0.13466370810127701</v>
       </c>
-      <c r="AH26" s="18">
+      <c r="AH26" s="12">
         <v>0.475231811435541</v>
       </c>
-      <c r="AI26" s="18">
+      <c r="AI26" s="12">
         <v>0.33596861177646198</v>
       </c>
-      <c r="AJ26" s="18">
+      <c r="AJ26" s="12">
         <v>5.4135868686720302E-2</v>
       </c>
     </row>
@@ -27268,52 +27267,52 @@
       <c r="T27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="12">
         <v>0.183369078326208</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="12">
         <v>0.27040974665850298</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="12">
         <v>0.40259778148862801</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="12">
         <v>0.14362339352666101</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="Y27" s="12">
         <v>0.183052595975607</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27" s="12">
         <v>0.26766771722923899</v>
       </c>
-      <c r="AA27" s="18">
+      <c r="AA27" s="12">
         <v>0.40271285179016397</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AB27" s="12">
         <v>0.14656683500499099</v>
       </c>
-      <c r="AC27" s="18">
+      <c r="AC27" s="12">
         <v>0.19336327345309401</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="12">
         <v>0.35700028514399801</v>
       </c>
-      <c r="AE27" s="18">
+      <c r="AE27" s="12">
         <v>0.39896397680828799</v>
       </c>
-      <c r="AF27" s="18">
+      <c r="AF27" s="12">
         <v>5.0672464594620298E-2</v>
       </c>
-      <c r="AG27" s="18">
+      <c r="AG27" s="12">
         <v>0.16910595996067701</v>
       </c>
-      <c r="AH27" s="18">
+      <c r="AH27" s="12">
         <v>0.38353408119952598</v>
       </c>
-      <c r="AI27" s="18">
+      <c r="AI27" s="12">
         <v>0.38864235642163503</v>
       </c>
-      <c r="AJ27" s="18">
+      <c r="AJ27" s="12">
         <v>5.8717602418161902E-2</v>
       </c>
     </row>
@@ -27375,52 +27374,52 @@
       <c r="T28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="12">
         <v>0.18622142691789201</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="12">
         <v>0.26597818586748501</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="12">
         <v>0.413471079116984</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="12">
         <v>0.13432930809763899</v>
       </c>
-      <c r="Y28" s="18">
+      <c r="Y28" s="12">
         <v>0.18642440924086401</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="12">
         <v>0.26413944342925</v>
       </c>
-      <c r="AA28" s="18">
+      <c r="AA28" s="12">
         <v>0.41305394880062002</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AB28" s="12">
         <v>0.136382198529266</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="12">
         <v>0.17824691876330701</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="12">
         <v>0.33821633130416501</v>
       </c>
-      <c r="AE28" s="18">
+      <c r="AE28" s="12">
         <v>0.42985875790925698</v>
       </c>
-      <c r="AF28" s="18">
+      <c r="AF28" s="12">
         <v>5.3677992023270497E-2</v>
       </c>
-      <c r="AG28" s="18">
+      <c r="AG28" s="12">
         <v>0.18895170210151199</v>
       </c>
-      <c r="AH28" s="18">
+      <c r="AH28" s="12">
         <v>0.35390807422883103</v>
       </c>
-      <c r="AI28" s="18">
+      <c r="AI28" s="12">
         <v>0.42395846134939202</v>
       </c>
-      <c r="AJ28" s="18">
+      <c r="AJ28" s="12">
         <v>3.3181762320265498E-2</v>
       </c>
     </row>
@@ -27482,52 +27481,52 @@
       <c r="T29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="12">
         <v>0.20105435133994101</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="12">
         <v>0.261626666398034</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="12">
         <v>0.41698757544981402</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="12">
         <v>0.12033140681221</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="Y29" s="12">
         <v>0.20118099178969601</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="12">
         <v>0.25962955334825</v>
       </c>
-      <c r="AA29" s="18">
+      <c r="AA29" s="12">
         <v>0.417240701386483</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AB29" s="12">
         <v>0.12194875347556999</v>
       </c>
-      <c r="AC29" s="18">
+      <c r="AC29" s="12">
         <v>0.19536604852613401</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="12">
         <v>0.351330894411505</v>
       </c>
-      <c r="AE29" s="18">
+      <c r="AE29" s="12">
         <v>0.40561793028047599</v>
       </c>
-      <c r="AF29" s="18">
+      <c r="AF29" s="12">
         <v>4.7685126781884697E-2</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AG29" s="12">
         <v>0.17806513727963899</v>
       </c>
-      <c r="AH29" s="18">
+      <c r="AH29" s="12">
         <v>0.39455861359184602</v>
       </c>
-      <c r="AI29" s="18">
+      <c r="AI29" s="12">
         <v>0.38456558547192998</v>
       </c>
-      <c r="AJ29" s="18">
+      <c r="AJ29" s="12">
         <v>4.2810663656585098E-2</v>
       </c>
     </row>
@@ -27589,52 +27588,52 @@
       <c r="T30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="12">
         <v>0.18392135688342801</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V30" s="12">
         <v>0.26285538128308999</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30" s="12">
         <v>0.42076002616309599</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30" s="12">
         <v>0.13246323567038601</v>
       </c>
-      <c r="Y30" s="18">
+      <c r="Y30" s="12">
         <v>0.18471435484512799</v>
       </c>
-      <c r="Z30" s="18">
+      <c r="Z30" s="12">
         <v>0.257589906310289</v>
       </c>
-      <c r="AA30" s="18">
+      <c r="AA30" s="12">
         <v>0.42267357755041002</v>
       </c>
-      <c r="AB30" s="18">
+      <c r="AB30" s="12">
         <v>0.13502216129417299</v>
       </c>
-      <c r="AC30" s="18">
+      <c r="AC30" s="12">
         <v>0.16107078459475699</v>
       </c>
-      <c r="AD30" s="18">
+      <c r="AD30" s="12">
         <v>0.41458227379906598</v>
       </c>
-      <c r="AE30" s="18">
+      <c r="AE30" s="12">
         <v>0.36562023209579703</v>
       </c>
-      <c r="AF30" s="18">
+      <c r="AF30" s="12">
         <v>5.8726709510379602E-2</v>
       </c>
-      <c r="AG30" s="18">
+      <c r="AG30" s="12">
         <v>0.188814378906072</v>
       </c>
-      <c r="AH30" s="18">
+      <c r="AH30" s="12">
         <v>0.35488344509830799</v>
       </c>
-      <c r="AI30" s="18">
+      <c r="AI30" s="12">
         <v>0.40421513617079502</v>
       </c>
-      <c r="AJ30" s="18">
+      <c r="AJ30" s="12">
         <v>5.2087039824825501E-2</v>
       </c>
     </row>
@@ -27696,52 +27695,52 @@
       <c r="T31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="12">
         <v>0.19556300650043401</v>
       </c>
-      <c r="V31" s="18">
+      <c r="V31" s="12">
         <v>0.27883615062983302</v>
       </c>
-      <c r="W31" s="18">
+      <c r="W31" s="12">
         <v>0.40428177161675899</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="12">
         <v>0.121319071252974</v>
       </c>
-      <c r="Y31" s="18">
+      <c r="Y31" s="12">
         <v>0.19618964314314499</v>
       </c>
-      <c r="Z31" s="18">
+      <c r="Z31" s="12">
         <v>0.27641283763580199</v>
       </c>
-      <c r="AA31" s="18">
+      <c r="AA31" s="12">
         <v>0.40406658028505898</v>
       </c>
-      <c r="AB31" s="18">
+      <c r="AB31" s="12">
         <v>0.12333093893599401</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AC31" s="12">
         <v>0.178788296991444</v>
       </c>
-      <c r="AD31" s="18">
+      <c r="AD31" s="12">
         <v>0.34370687275738299</v>
       </c>
-      <c r="AE31" s="18">
+      <c r="AE31" s="12">
         <v>0.41004232220075398</v>
       </c>
-      <c r="AF31" s="18">
+      <c r="AF31" s="12">
         <v>6.7462508050418604E-2</v>
       </c>
-      <c r="AG31" s="18">
+      <c r="AG31" s="12">
         <v>0.16754590298711999</v>
       </c>
-      <c r="AH31" s="18">
+      <c r="AH31" s="12">
         <v>0.42754864346396299</v>
       </c>
-      <c r="AI31" s="18">
+      <c r="AI31" s="12">
         <v>0.35040422033433799</v>
       </c>
-      <c r="AJ31" s="18">
+      <c r="AJ31" s="12">
         <v>5.4501233214579302E-2</v>
       </c>
     </row>
@@ -27803,52 +27802,52 @@
       <c r="T32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="12">
         <v>0.18344492224429401</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="12">
         <v>0.25015444451299701</v>
       </c>
-      <c r="W32" s="18">
+      <c r="W32" s="12">
         <v>0.41012891974516202</v>
       </c>
-      <c r="X32" s="18">
+      <c r="X32" s="12">
         <v>0.15627171349754801</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="Y32" s="12">
         <v>0.18326798903004299</v>
       </c>
-      <c r="Z32" s="18">
+      <c r="Z32" s="12">
         <v>0.24875631218525199</v>
       </c>
-      <c r="AA32" s="18">
+      <c r="AA32" s="12">
         <v>0.40977199137149101</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AB32" s="12">
         <v>0.15820370741321299</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="12">
         <v>0.191005543478901</v>
       </c>
-      <c r="AD32" s="18">
+      <c r="AD32" s="12">
         <v>0.30989873283495001</v>
       </c>
-      <c r="AE32" s="18">
+      <c r="AE32" s="12">
         <v>0.42538100371725301</v>
       </c>
-      <c r="AF32" s="18">
+      <c r="AF32" s="12">
         <v>7.3714719968895295E-2</v>
       </c>
-      <c r="AG32" s="18">
+      <c r="AG32" s="12">
         <v>0.156275198335284</v>
       </c>
-      <c r="AH32" s="18">
+      <c r="AH32" s="12">
         <v>0.44590714007023002</v>
       </c>
-      <c r="AI32" s="18">
+      <c r="AI32" s="12">
         <v>0.35222785797893102</v>
       </c>
-      <c r="AJ32" s="18">
+      <c r="AJ32" s="12">
         <v>4.5589803615554703E-2</v>
       </c>
     </row>
@@ -27910,52 +27909,52 @@
       <c r="T33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="12">
         <v>0.17777673541566</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="12">
         <v>0.27248429811765001</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="12">
         <v>0.41359109906140501</v>
       </c>
-      <c r="X33" s="18">
+      <c r="X33" s="12">
         <v>0.13614786740528401</v>
       </c>
-      <c r="Y33" s="18">
+      <c r="Y33" s="12">
         <v>0.17868561225889701</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="Z33" s="12">
         <v>0.26910084322664901</v>
       </c>
-      <c r="AA33" s="18">
+      <c r="AA33" s="12">
         <v>0.41281273051542</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AB33" s="12">
         <v>0.13940081399903401</v>
       </c>
-      <c r="AC33" s="18">
+      <c r="AC33" s="12">
         <v>0.162553907121568</v>
       </c>
-      <c r="AD33" s="18">
+      <c r="AD33" s="12">
         <v>0.32915397039479199</v>
       </c>
-      <c r="AE33" s="18">
+      <c r="AE33" s="12">
         <v>0.42662803669846999</v>
       </c>
-      <c r="AF33" s="18">
+      <c r="AF33" s="12">
         <v>8.1664085785170801E-2</v>
       </c>
-      <c r="AG33" s="18">
+      <c r="AG33" s="12">
         <v>0.13162635100360301</v>
       </c>
-      <c r="AH33" s="18">
+      <c r="AH33" s="12">
         <v>0.41749871332990202</v>
       </c>
-      <c r="AI33" s="18">
+      <c r="AI33" s="12">
         <v>0.39269171384457002</v>
       </c>
-      <c r="AJ33" s="18">
+      <c r="AJ33" s="12">
         <v>5.8183221821924903E-2</v>
       </c>
     </row>
@@ -28017,52 +28016,52 @@
       <c r="T34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="12">
         <v>0.21176951233879401</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="12">
         <v>0.26385018315800601</v>
       </c>
-      <c r="W34" s="18">
+      <c r="W34" s="12">
         <v>0.39152616055761102</v>
       </c>
-      <c r="X34" s="18">
+      <c r="X34" s="12">
         <v>0.132854143945589</v>
       </c>
-      <c r="Y34" s="18">
+      <c r="Y34" s="12">
         <v>0.211873002938716</v>
       </c>
-      <c r="Z34" s="18">
+      <c r="Z34" s="12">
         <v>0.261932672468909</v>
       </c>
-      <c r="AA34" s="18">
+      <c r="AA34" s="12">
         <v>0.39158790030218898</v>
       </c>
-      <c r="AB34" s="18">
+      <c r="AB34" s="12">
         <v>0.13460642429018599</v>
       </c>
-      <c r="AC34" s="18">
+      <c r="AC34" s="12">
         <v>0.20729775828460001</v>
       </c>
-      <c r="AD34" s="18">
+      <c r="AD34" s="12">
         <v>0.346704434697856</v>
       </c>
-      <c r="AE34" s="18">
+      <c r="AE34" s="12">
         <v>0.38885843079922</v>
       </c>
-      <c r="AF34" s="18">
+      <c r="AF34" s="12">
         <v>5.7139376218323601E-2</v>
       </c>
-      <c r="AG34" s="18">
+      <c r="AG34" s="12">
         <v>0.18085338085338101</v>
       </c>
-      <c r="AH34" s="18">
+      <c r="AH34" s="12">
         <v>0.40077220077220099</v>
       </c>
-      <c r="AI34" s="18">
+      <c r="AI34" s="12">
         <v>0.36388476388476398</v>
       </c>
-      <c r="AJ34" s="18">
+      <c r="AJ34" s="12">
         <v>5.4489654489654503E-2</v>
       </c>
     </row>
@@ -28124,52 +28123,52 @@
       <c r="T35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="12">
         <v>0.189430611390975</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="12">
         <v>0.26964986554308501</v>
       </c>
-      <c r="W35" s="18">
+      <c r="W35" s="12">
         <v>0.40898166315207901</v>
       </c>
-      <c r="X35" s="18">
+      <c r="X35" s="12">
         <v>0.13193785991386101</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="Y35" s="12">
         <v>0.19012293506582301</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="12">
         <v>0.26618218270175398</v>
       </c>
-      <c r="AA35" s="18">
+      <c r="AA35" s="12">
         <v>0.40924374069304198</v>
       </c>
-      <c r="AB35" s="18">
+      <c r="AB35" s="12">
         <v>0.13445114153938101</v>
       </c>
-      <c r="AC35" s="18">
+      <c r="AC35" s="12">
         <v>0.16995797726967299</v>
       </c>
-      <c r="AD35" s="18">
+      <c r="AD35" s="12">
         <v>0.36718360831553698</v>
       </c>
-      <c r="AE35" s="18">
+      <c r="AE35" s="12">
         <v>0.40161034211831897</v>
       </c>
-      <c r="AF35" s="18">
+      <c r="AF35" s="12">
         <v>6.1248072296471202E-2</v>
       </c>
-      <c r="AG35" s="18">
+      <c r="AG35" s="12">
         <v>0.16995797726967299</v>
       </c>
-      <c r="AH35" s="18">
+      <c r="AH35" s="12">
         <v>0.36718360831553698</v>
       </c>
-      <c r="AI35" s="18">
+      <c r="AI35" s="12">
         <v>0.40161034211831897</v>
       </c>
-      <c r="AJ35" s="18">
+      <c r="AJ35" s="12">
         <v>6.1248072296471202E-2</v>
       </c>
     </row>
@@ -28244,6 +28243,32 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{DE770695-1F02-4E60-A96F-14F953A29E77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C82A6E37-0A5F-41FC-BA26-C59D9C81FFA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{540AD615-4E26-4B32-88FE-491701891C64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -28392,32 +28417,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V35">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C82A6E37-0A5F-41FC-BA26-C59D9C81FFA7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{540AD615-4E26-4B32-88FE-491701891C64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -28468,6 +28467,25 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>V3:V35 Z3:Z35 AD3:AD35 AH3:AH35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C82A6E37-0A5F-41FC-BA26-C59D9C81FFA7}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{540AD615-4E26-4B32-88FE-491701891C64}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V3:V35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4B790113-80E1-48BF-BC09-F68A4CE308E9}">
@@ -28575,25 +28593,6 @@
           </x14:cfRule>
           <xm:sqref>AJ3:AJ35</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C82A6E37-0A5F-41FC-BA26-C59D9C81FFA7}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{540AD615-4E26-4B32-88FE-491701891C64}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>V3:V35</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -28604,8 +28603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
@@ -28638,545 +28637,551 @@
     <col min="125" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:132" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="19" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
-      <c r="BL1" s="19"/>
-      <c r="BM1" s="19"/>
-      <c r="BN1" s="19"/>
-      <c r="BQ1" s="11" t="s">
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BQ1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="12" t="s">
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="14" t="s">
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
+      <c r="CK1" s="19"/>
+      <c r="CL1" s="19"/>
+      <c r="CM1" s="19"/>
+      <c r="CN1" s="19"/>
+      <c r="CO1" s="19"/>
+      <c r="CP1" s="19"/>
+      <c r="CQ1" s="19"/>
+      <c r="CR1" s="19"/>
+      <c r="CS1" s="19"/>
+      <c r="CT1" s="19"/>
+      <c r="CU1" s="19"/>
+      <c r="CV1" s="19"/>
+      <c r="CW1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="19" t="s">
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="DN1" s="19"/>
-      <c r="DO1" s="19"/>
-      <c r="DP1" s="19"/>
-      <c r="DQ1" s="19"/>
-      <c r="DR1" s="19"/>
-      <c r="DS1" s="19"/>
-      <c r="DT1" s="19"/>
-      <c r="DU1" s="19"/>
-      <c r="DV1" s="19"/>
-      <c r="DW1" s="19"/>
-      <c r="DX1" s="19"/>
-      <c r="DY1" s="19"/>
-      <c r="DZ1" s="19"/>
-      <c r="EA1" s="19"/>
-      <c r="EB1" s="19"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
     </row>
-    <row r="2" spans="2:132" s="20" customFormat="1" ht="144" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:132" s="13" customFormat="1" ht="132" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AR2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AS2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AV2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AW2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AX2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BB2" s="20" t="s">
+      <c r="BB2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BL2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BM2" s="20" t="s">
+      <c r="BM2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BN2" s="20" t="s">
+      <c r="BN2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="BQ2" s="20" t="s">
+      <c r="BQ2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BR2" s="20" t="s">
+      <c r="BR2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BV2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BW2" s="20" t="s">
+      <c r="BW2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BX2" s="20" t="s">
+      <c r="BX2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BY2" s="20" t="s">
+      <c r="BY2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BZ2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CA2" s="20" t="s">
+      <c r="CA2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CB2" s="20" t="s">
+      <c r="CB2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="CC2" s="20" t="s">
+      <c r="CC2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="CD2" s="20" t="s">
+      <c r="CD2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="CE2" s="20" t="s">
+      <c r="CE2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="CF2" s="20" t="s">
+      <c r="CF2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="CG2" s="20" t="s">
+      <c r="CG2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CH2" s="20" t="s">
+      <c r="CH2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CI2" s="20" t="s">
+      <c r="CI2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CJ2" s="20" t="s">
+      <c r="CJ2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CK2" s="20" t="s">
+      <c r="CK2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CL2" s="20" t="s">
+      <c r="CL2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CM2" s="20" t="s">
+      <c r="CM2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CN2" s="20" t="s">
+      <c r="CN2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CO2" s="20" t="s">
+      <c r="CO2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CP2" s="20" t="s">
+      <c r="CP2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CQ2" s="20" t="s">
+      <c r="CQ2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CR2" s="20" t="s">
+      <c r="CR2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="CS2" s="20" t="s">
+      <c r="CS2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="CT2" s="20" t="s">
+      <c r="CT2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="CU2" s="20" t="s">
+      <c r="CU2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="CV2" s="20" t="s">
+      <c r="CV2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="CW2" s="20" t="s">
+      <c r="CW2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CX2" s="20" t="s">
+      <c r="CX2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="CY2" s="20" t="s">
+      <c r="CY2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CZ2" s="20" t="s">
+      <c r="CZ2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="DA2" s="20" t="s">
+      <c r="DA2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="DB2" s="20" t="s">
+      <c r="DB2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="DC2" s="20" t="s">
+      <c r="DC2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="DD2" s="20" t="s">
+      <c r="DD2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="DE2" s="20" t="s">
+      <c r="DE2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DF2" s="20" t="s">
+      <c r="DF2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DG2" s="20" t="s">
+      <c r="DG2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="DH2" s="20" t="s">
+      <c r="DH2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="DI2" s="20" t="s">
+      <c r="DI2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="DJ2" s="20" t="s">
+      <c r="DJ2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="DK2" s="20" t="s">
+      <c r="DK2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="DL2" s="20" t="s">
+      <c r="DL2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="DM2" s="20" t="s">
+      <c r="DM2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DN2" s="20" t="s">
+      <c r="DN2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="DO2" s="20" t="s">
+      <c r="DO2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="DP2" s="20" t="s">
+      <c r="DP2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="DQ2" s="20" t="s">
+      <c r="DQ2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="DR2" s="20" t="s">
+      <c r="DR2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="DS2" s="20" t="s">
+      <c r="DS2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="DT2" s="20" t="s">
+      <c r="DT2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="DU2" s="20" t="s">
+      <c r="DU2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="DV2" s="20" t="s">
+      <c r="DV2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="DW2" s="20" t="s">
+      <c r="DW2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="DX2" s="20" t="s">
+      <c r="DX2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="DY2" s="20" t="s">
+      <c r="DY2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="DZ2" s="20" t="s">
+      <c r="DZ2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="EA2" s="20" t="s">
+      <c r="EA2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="EB2" s="20" t="s">
+      <c r="EB2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="2">
         <v>1421198</v>
       </c>
@@ -29528,7 +29533,10 @@
         <v>1.8470631695604E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="2">
         <v>3739797</v>
       </c>
@@ -29895,7 +29903,10 @@
         <v>1.06729075314722E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2">
         <v>793424</v>
       </c>
@@ -30252,7 +30263,10 @@
         <v>9.5194443465077699E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2">
         <v>926858</v>
       </c>
@@ -30614,7 +30628,10 @@
         <v>2.12921684742831E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2">
         <v>3137032</v>
       </c>
@@ -30976,7 +30993,10 @@
         <v>1.55226251286031E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2">
         <v>728300</v>
       </c>
@@ -31338,7 +31358,10 @@
         <v>1.6050735984967099E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="2">
         <v>5524506</v>
       </c>
@@ -31700,7 +31723,10 @@
         <v>6.7962022821647298E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="2">
         <v>3725058</v>
       </c>
@@ -32077,7 +32103,10 @@
         <v>7.5875211744776995E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="2">
         <v>9159393</v>
       </c>
@@ -32459,7 +32488,10 @@
         <v>1.7647353397766501E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="2">
         <v>1821279</v>
       </c>
@@ -32826,7 +32858,10 @@
         <v>4.87428408952435E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="2">
         <v>6144449</v>
       </c>
@@ -33213,7 +33248,10 @@
         <v>8.2113880922616905E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="2">
         <v>3525695</v>
       </c>
@@ -33595,7 +33633,10 @@
         <v>1.9339865910262999E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="2">
         <v>3075237</v>
       </c>
@@ -33967,7 +34008,10 @@
         <v>4.5416796428942202E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" s="2">
         <v>8303835</v>
       </c>
@@ -34339,7 +34383,10 @@
         <v>1.4275008029692E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="2">
         <v>16943627</v>
       </c>
@@ -34721,7 +34768,10 @@
         <v>1.54586470150457E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B18" s="2">
         <v>4728162</v>
       </c>
@@ -35098,7 +35148,10 @@
         <v>2.1151018270450998E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="2">
         <v>1961694</v>
       </c>
@@ -35465,7 +35518,10 @@
         <v>6.3305216692045797E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B20" s="2">
         <v>1226179</v>
       </c>
@@ -35842,7 +35898,10 @@
         <v>1.13192597204143E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="2">
         <v>5768781</v>
       </c>
@@ -36219,7 +36278,10 @@
         <v>2.1711776171325701E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="2">
         <v>4113433</v>
       </c>
@@ -36591,7 +36653,10 @@
         <v>1.01392289240052E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="2">
         <v>6567595</v>
       </c>
@@ -36968,7 +37033,10 @@
         <v>1.4127257213993E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B24" s="2">
         <v>2362209</v>
       </c>
@@ -37335,7 +37403,10 @@
         <v>1.1336210049001699E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B25" s="2">
         <v>1852929</v>
       </c>
@@ -37707,7 +37778,10 @@
         <v>7.31014316846432E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B26" s="2">
         <v>2815438</v>
       </c>
@@ -38069,7 +38143,10 @@
         <v>2.0136205880426999E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="2">
         <v>2986880</v>
       </c>
@@ -38436,7 +38513,10 @@
         <v>1.29291315407741E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B28" s="2">
         <v>2924652</v>
       </c>
@@ -38813,7 +38893,10 @@
         <v>1.32706861303397E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" s="2">
         <v>2397125</v>
       </c>
@@ -39175,7 +39258,10 @@
         <v>1.11379959288705E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="2">
         <v>3518497</v>
       </c>
@@ -39537,7 +39623,10 @@
         <v>1.1551749719154699E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B31" s="2">
         <v>1340912</v>
       </c>
@@ -39899,7 +39988,10 @@
       </c>
       <c r="EB31" s="7"/>
     </row>
-    <row r="32" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B32" s="2">
         <v>8046861</v>
       </c>
@@ -40266,7 +40358,10 @@
         <v>6.9333458681959204E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B33" s="2">
         <v>2317135</v>
       </c>
@@ -40643,7 +40738,10 @@
         <v>9.1358095183715401E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:132" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:132" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B34" s="2">
         <v>1617384</v>
       </c>
@@ -41010,7 +41108,10 @@
         <v>3.70378943957036E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:132" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B35" s="3">
         <v>125515554</v>
       </c>
@@ -41413,6 +41514,20 @@
     <mergeCell ref="BQ1:CF1"/>
     <mergeCell ref="CG1:CV1"/>
   </mergeCells>
+  <conditionalFormatting sqref="BQ3:CE35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5C505037-B24A-41F6-827A-D462F0485F40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:CF35">
     <cfRule type="dataBar" priority="6">
       <dataBar>
@@ -41437,20 +41552,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BAF58F0F-5FAF-4172-97B5-BFE8DB8228B5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ3:CE35">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF002060"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C505037-B24A-41F6-827A-D462F0485F40}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -41501,6 +41602,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5C505037-B24A-41F6-827A-D462F0485F40}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BQ3:CE35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E8CF356-593E-4648-938D-B5E6F805E258}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -41521,17 +41633,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>CG3:CV35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C505037-B24A-41F6-827A-D462F0485F40}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>BQ3:CE35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C46B02A9-A9A7-4FA9-A918-F07A4A2CC87B}">
@@ -41573,7 +41674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
@@ -41600,16 +41703,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="22" t="s">
         <v>55</v>
       </c>
@@ -41620,16 +41723,16 @@
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
@@ -41641,86 +41744,86 @@
       <c r="AA1" s="23"/>
       <c r="AB1" s="23"/>
     </row>
-    <row r="2" spans="1:28" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:28" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -44584,7 +44687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
@@ -44613,16 +44718,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="22" t="s">
         <v>55</v>
       </c>
@@ -44633,16 +44738,16 @@
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
@@ -47387,7 +47492,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C40" s="25"/>
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -47544,16 +47649,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="22" t="s">
         <v>55</v>
       </c>
@@ -47564,16 +47669,16 @@
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
@@ -50293,7 +50398,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C40" s="25"/>
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -50421,7 +50526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:AB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
@@ -50450,16 +50557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="22" t="s">
         <v>55</v>
       </c>
@@ -50470,16 +50577,16 @@
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
@@ -53299,7 +53406,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C40" s="25"/>
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -53456,16 +53563,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="22" t="s">
         <v>55</v>
       </c>
@@ -53476,16 +53583,16 @@
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
@@ -56315,7 +56422,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C40" s="25"/>
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -56455,30 +56562,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="21" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="22" t="s">
         <v>55</v>
       </c>
@@ -56491,43 +56598,43 @@
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
       <c r="AF1" s="22"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
       <c r="AR1" s="3"/>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="21" t="s">
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
       <c r="BM1" s="22" t="s">
         <v>55</v>
       </c>
@@ -56540,267 +56647,267 @@
       <c r="BT1" s="22"/>
       <c r="BU1" s="22"/>
       <c r="BV1" s="22"/>
-      <c r="BW1" s="19" t="s">
+      <c r="BW1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BX1" s="19"/>
-      <c r="BY1" s="19"/>
-      <c r="BZ1" s="19"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="19"/>
-      <c r="CE1" s="19"/>
-      <c r="CF1" s="19"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
     </row>
-    <row r="2" spans="1:84" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:84" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AR2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AS2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AV2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AW2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AX2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BB2" s="20" t="s">
+      <c r="BB2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BL2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BM2" s="20" t="s">
+      <c r="BM2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BN2" s="20" t="s">
+      <c r="BN2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BO2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BQ2" s="20" t="s">
+      <c r="BQ2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BR2" s="20" t="s">
+      <c r="BR2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BV2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BW2" s="20" t="s">
+      <c r="BW2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BX2" s="20" t="s">
+      <c r="BX2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BY2" s="20" t="s">
+      <c r="BY2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BZ2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CA2" s="20" t="s">
+      <c r="CA2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CB2" s="20" t="s">
+      <c r="CB2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CC2" s="20" t="s">
+      <c r="CC2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="CD2" s="20" t="s">
+      <c r="CD2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="20" t="s">
+      <c r="CE2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="CF2" s="20" t="s">
+      <c r="CF2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -56991,7 +57098,7 @@
       <c r="BR3" s="6">
         <v>7.28704177463812E-2</v>
       </c>
-      <c r="BS3" s="16">
+      <c r="BS3" s="6">
         <v>4.4564015382837899E-4</v>
       </c>
       <c r="BT3" s="6"/>
@@ -57222,7 +57329,7 @@
       <c r="BR4" s="6">
         <v>2.7061493916377299E-2</v>
       </c>
-      <c r="BS4" s="16">
+      <c r="BS4" s="6">
         <v>2.2096744439721199E-3</v>
       </c>
       <c r="BT4" s="6"/>
@@ -57448,7 +57555,7 @@
       <c r="BR5" s="6">
         <v>2.3906884364868399E-2</v>
       </c>
-      <c r="BS5" s="16">
+      <c r="BS5" s="6">
         <v>7.3020416508455803E-4</v>
       </c>
       <c r="BT5" s="6"/>
@@ -57671,7 +57778,7 @@
       <c r="BR6" s="6">
         <v>5.9467830494157402E-2</v>
       </c>
-      <c r="BS6" s="16">
+      <c r="BS6" s="6">
         <v>6.0819372096297302E-3</v>
       </c>
       <c r="BT6" s="6"/>
@@ -57895,7 +58002,7 @@
       <c r="BR7" s="6">
         <v>3.0318368830224901E-2</v>
       </c>
-      <c r="BS7" s="16">
+      <c r="BS7" s="6">
         <v>6.61916442783164E-4</v>
       </c>
       <c r="BT7" s="6"/>
@@ -58126,7 +58233,7 @@
       <c r="BR8" s="6">
         <v>4.6900948197353597E-2</v>
       </c>
-      <c r="BS8" s="16">
+      <c r="BS8" s="6">
         <v>1.2856913269405901E-3</v>
       </c>
       <c r="BT8" s="6"/>
@@ -58357,7 +58464,7 @@
       <c r="BR9" s="6">
         <v>4.0266883058335597E-2</v>
       </c>
-      <c r="BS9" s="16">
+      <c r="BS9" s="6">
         <v>4.3098007393382E-3</v>
       </c>
       <c r="BT9" s="6"/>
@@ -58585,7 +58692,7 @@
       <c r="BR10" s="6">
         <v>6.1751617195026798E-3</v>
       </c>
-      <c r="BS10" s="16">
+      <c r="BS10" s="6">
         <v>5.2209019589851803E-3</v>
       </c>
       <c r="BT10" s="6"/>
@@ -58814,7 +58921,7 @@
       <c r="BR11" s="6">
         <v>3.7277200203432302E-2</v>
       </c>
-      <c r="BS11" s="16">
+      <c r="BS11" s="6">
         <v>5.1745141870394699E-4</v>
       </c>
       <c r="BT11" s="6"/>
@@ -59042,7 +59149,7 @@
       <c r="BR12" s="6">
         <v>6.13030330798131E-2</v>
       </c>
-      <c r="BS12" s="16">
+      <c r="BS12" s="6">
         <v>1.1454228901310401E-4</v>
       </c>
       <c r="BT12" s="6"/>
@@ -59271,7 +59378,7 @@
       <c r="BR13" s="6">
         <v>3.1978769915136901E-2</v>
       </c>
-      <c r="BS13" s="16">
+      <c r="BS13" s="6">
         <v>5.0688736790858802E-3</v>
       </c>
       <c r="BT13" s="6"/>
@@ -59502,7 +59609,7 @@
       <c r="BR14" s="6">
         <v>3.1450723415298802E-2</v>
       </c>
-      <c r="BS14" s="16">
+      <c r="BS14" s="6">
         <v>1.75176798806203E-3</v>
       </c>
       <c r="BT14" s="6"/>
@@ -59733,7 +59840,7 @@
       <c r="BR15" s="6">
         <v>8.56068997752579E-2</v>
       </c>
-      <c r="BS15" s="16">
+      <c r="BS15" s="6">
         <v>3.5536147625480998E-3</v>
       </c>
       <c r="BT15" s="6"/>
@@ -59964,7 +60071,7 @@
       <c r="BR16" s="6">
         <v>2.8988275026761899E-2</v>
       </c>
-      <c r="BS16" s="16">
+      <c r="BS16" s="6">
         <v>1.19611814430814E-3</v>
       </c>
       <c r="BT16" s="6"/>
@@ -60195,7 +60302,7 @@
       <c r="BR17" s="6">
         <v>4.6220640664136101E-2</v>
       </c>
-      <c r="BS17" s="16">
+      <c r="BS17" s="6">
         <v>7.9999822518419302E-3</v>
       </c>
       <c r="BT17" s="6"/>
@@ -60426,7 +60533,7 @@
       <c r="BR18" s="6">
         <v>3.7214657694867301E-2</v>
       </c>
-      <c r="BS18" s="16">
+      <c r="BS18" s="6">
         <v>3.4330865032165402E-3</v>
       </c>
       <c r="BT18" s="6"/>
@@ -60657,7 +60764,7 @@
       <c r="BR19" s="6">
         <v>7.3037444299111007E-2</v>
       </c>
-      <c r="BS19" s="16">
+      <c r="BS19" s="6">
         <v>5.2985124260092704E-3</v>
       </c>
       <c r="BT19" s="6"/>
@@ -60888,7 +60995,7 @@
       <c r="BR20" s="6">
         <v>4.3884159681157497E-2</v>
       </c>
-      <c r="BS20" s="16">
+      <c r="BS20" s="6">
         <v>6.4981480278120707E-5</v>
       </c>
       <c r="BT20" s="6"/>
@@ -61119,7 +61226,7 @@
       <c r="BR21" s="6">
         <v>2.1363354312560898E-2</v>
       </c>
-      <c r="BS21" s="16">
+      <c r="BS21" s="6">
         <v>3.8412670271547998E-4</v>
       </c>
       <c r="BT21" s="6"/>
@@ -61350,7 +61457,7 @@
       <c r="BR22" s="6">
         <v>4.96703665272668E-2</v>
       </c>
-      <c r="BS22" s="16">
+      <c r="BS22" s="6">
         <v>1.2891865547275401E-3</v>
       </c>
       <c r="BT22" s="6"/>
@@ -61581,7 +61688,7 @@
       <c r="BR23" s="6">
         <v>6.21442689425903E-2</v>
       </c>
-      <c r="BS23" s="16">
+      <c r="BS23" s="6">
         <v>4.1399307934961698E-3</v>
       </c>
       <c r="BT23" s="6"/>
@@ -61807,7 +61914,7 @@
       <c r="BR24" s="6">
         <v>9.3529525088905899E-2</v>
       </c>
-      <c r="BS24" s="16">
+      <c r="BS24" s="6">
         <v>4.5299051843983801E-3</v>
       </c>
       <c r="BT24" s="6"/>
@@ -62038,7 +62145,7 @@
       <c r="BR25" s="6">
         <v>2.9094979782075401E-2</v>
       </c>
-      <c r="BS25" s="16">
+      <c r="BS25" s="6">
         <v>1.7053152479245899E-3</v>
       </c>
       <c r="BT25" s="6"/>
@@ -62269,7 +62376,7 @@
       <c r="BR26" s="6">
         <v>3.7287570809730101E-2</v>
       </c>
-      <c r="BS26" s="16">
+      <c r="BS26" s="6">
         <v>5.4981672775741397E-4</v>
       </c>
       <c r="BT26" s="6"/>
@@ -62487,7 +62594,7 @@
       <c r="BR27" s="6">
         <v>2.89064727687482E-2</v>
       </c>
-      <c r="BS27" s="16"/>
+      <c r="BS27" s="6"/>
       <c r="BT27" s="6"/>
       <c r="BU27" s="6">
         <v>5.70644425434845E-2</v>
@@ -62716,7 +62823,7 @@
       <c r="BR28" s="6">
         <v>1.6268329984706301E-2</v>
       </c>
-      <c r="BS28" s="16">
+      <c r="BS28" s="6">
         <v>1.4693975470057301E-3</v>
       </c>
       <c r="BT28" s="6"/>
@@ -62947,7 +63054,7 @@
       <c r="BR29" s="6">
         <v>2.2076447584205901E-2</v>
       </c>
-      <c r="BS29" s="16">
+      <c r="BS29" s="6">
         <v>2.03944325301711E-3</v>
       </c>
       <c r="BT29" s="6"/>
@@ -63178,7 +63285,7 @@
       <c r="BR30" s="6">
         <v>1.26126959175181E-2</v>
       </c>
-      <c r="BS30" s="16">
+      <c r="BS30" s="6">
         <v>7.8598178371630696E-4</v>
       </c>
       <c r="BT30" s="6"/>
@@ -63409,7 +63516,7 @@
       <c r="BR31" s="6">
         <v>6.7071487717361294E-2</v>
       </c>
-      <c r="BS31" s="16">
+      <c r="BS31" s="6">
         <v>5.4052810746158799E-3</v>
       </c>
       <c r="BT31" s="6"/>
@@ -63640,7 +63747,7 @@
       <c r="BR32" s="6">
         <v>4.5579060848664803E-2</v>
       </c>
-      <c r="BS32" s="16">
+      <c r="BS32" s="6">
         <v>1.8026615767986901E-3</v>
       </c>
       <c r="BT32" s="6"/>
@@ -63871,7 +63978,7 @@
       <c r="BR33" s="6">
         <v>0.20032635662786999</v>
       </c>
-      <c r="BS33" s="16">
+      <c r="BS33" s="6">
         <v>3.7048137602610901E-3</v>
       </c>
       <c r="BT33" s="6"/>
@@ -64094,7 +64201,7 @@
       <c r="BR34" s="6">
         <v>2.72904483430799E-2</v>
       </c>
-      <c r="BS34" s="16">
+      <c r="BS34" s="6">
         <v>2.1320662768031199E-4</v>
       </c>
       <c r="BT34" s="6"/>
@@ -64339,7 +64446,7 @@
       <c r="BR35" s="6">
         <v>4.6584697406113103E-2</v>
       </c>
-      <c r="BS35" s="16">
+      <c r="BS35" s="6">
         <v>2.85392840005497E-3</v>
       </c>
       <c r="BT35" s="6">
